--- a/Solution3/Results/Results_Revised.xlsx
+++ b/Solution3/Results/Results_Revised.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7272E77C-C7C8-428E-9BD8-06E3C67C4ACE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B9E73-2EBC-452E-8EC3-11A6F688D0B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NoCrop" sheetId="12" r:id="rId1"/>
-    <sheet name="CornerCrop" sheetId="11" r:id="rId2"/>
-    <sheet name="MidCrop" sheetId="13" r:id="rId3"/>
-    <sheet name="AutomaticMuscleCrop" sheetId="10" r:id="rId4"/>
-    <sheet name="ManualMuscleCrop" sheetId="14" r:id="rId5"/>
-    <sheet name="AllWhite" sheetId="15" r:id="rId6"/>
+    <sheet name="Compiled" sheetId="18" r:id="rId1"/>
+    <sheet name="NoCrop" sheetId="12" r:id="rId2"/>
+    <sheet name="CornerCrop" sheetId="11" r:id="rId3"/>
+    <sheet name="MidCrop" sheetId="13" r:id="rId4"/>
+    <sheet name="AutomaticMuscleCrop" sheetId="10" r:id="rId5"/>
+    <sheet name="ManualMuscleCrop" sheetId="14" r:id="rId6"/>
     <sheet name="AllBlack" sheetId="16" r:id="rId7"/>
+    <sheet name="AllWhite" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="82">
   <si>
     <t>Image</t>
   </si>
@@ -187,12 +188,6 @@
     <t>AD4_R.png</t>
   </si>
   <si>
-    <t>Classifier output (64%, AUC=0.68)</t>
-  </si>
-  <si>
-    <t>Naïve combined output(77%, AUC=0.82)</t>
-  </si>
-  <si>
     <t>AD19_R.png</t>
   </si>
   <si>
@@ -217,28 +212,10 @@
     <t>Radiologist output(87%, AUC=0.87)</t>
   </si>
   <si>
-    <t>Classifier output (63%, AUC=0.68)</t>
-  </si>
-  <si>
-    <t>Naïve combined output(72%, AUC=0.74)</t>
-  </si>
-  <si>
-    <t>Naïve combined output(77%, AUC=0.81)</t>
-  </si>
-  <si>
-    <t>Classifier output (57%, AUC=0.66)</t>
-  </si>
-  <si>
     <t>Naïve combined output(81%, AUC=0.81)</t>
   </si>
   <si>
     <t>Classifier output (57%, AUC=0.60)</t>
-  </si>
-  <si>
-    <t>Naïve combined output(70%, AUC=0.75)</t>
-  </si>
-  <si>
-    <t>Classifier output (55%, AUC=0.65)</t>
   </si>
   <si>
     <t>Naïve combined output(50%, AUC=0.5)</t>
@@ -248,6 +225,60 @@
   </si>
   <si>
     <t>Classifier output (50%, AUC=0.46)</t>
+  </si>
+  <si>
+    <t>No Crop</t>
+  </si>
+  <si>
+    <t>Corner Crop</t>
+  </si>
+  <si>
+    <t>Mid Crop</t>
+  </si>
+  <si>
+    <t>Manual Muscle Crop</t>
+  </si>
+  <si>
+    <t>Automatic Muscle Crop</t>
+  </si>
+  <si>
+    <t>All black</t>
+  </si>
+  <si>
+    <t>All white</t>
+  </si>
+  <si>
+    <t>Model AUC</t>
+  </si>
+  <si>
+    <t>Voting system AUC</t>
+  </si>
+  <si>
+    <t>Naïve combined output(81%, AUC=0.82)</t>
+  </si>
+  <si>
+    <t>Radiologist AUC=0.87</t>
+  </si>
+  <si>
+    <t>Naïve combined output(72%, AUC=0.81)</t>
+  </si>
+  <si>
+    <t>Classifier output (61%, AUC=0.67)</t>
+  </si>
+  <si>
+    <t>Classifier output (61%, AUC=0.65)</t>
+  </si>
+  <si>
+    <t>Naïve combined output(72%, AUC=0.73)</t>
+  </si>
+  <si>
+    <t>Classifier output (61%, AUC=0.70)</t>
+  </si>
+  <si>
+    <t>Naïve combined output(76%, AUC=0.74)</t>
+  </si>
+  <si>
+    <t>Classifier output (57%, AUC=0.68)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -343,6 +374,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -351,12 +397,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -640,11 +687,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17285087-9FF6-4D16-86F3-B184EAB2C47C}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9D5C02-F553-40D0-AA43-0F8704563EE2}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G55"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -678,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -695,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.55077095829157297</v>
+        <v>0.32799289736506998</v>
       </c>
       <c r="F2">
         <v>0.462857142</v>
@@ -718,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.41882146781310298</v>
+        <v>0.19981293351213</v>
       </c>
       <c r="F3">
         <v>0.305714285999999</v>
@@ -741,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.32430239960841301</v>
+        <v>0.37945169015059099</v>
       </c>
       <c r="F4">
         <v>0.54666666600000002</v>
@@ -764,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.50442910440795197</v>
+        <v>0.34365729467727602</v>
       </c>
       <c r="F5">
         <v>0.40571428599999898</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -787,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.196899701875629</v>
+        <v>0.207918698478294</v>
       </c>
       <c r="F6">
         <v>0.182857142</v>
@@ -810,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.6296185393812401E-2</v>
+        <v>0.102270064747052</v>
       </c>
       <c r="F7">
         <v>0.29857142799999897</v>
@@ -833,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.24733603764341899</v>
+        <v>0.48347305457864997</v>
       </c>
       <c r="F8">
         <v>0.55466666599999903</v>
@@ -856,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.51986557491964103</v>
+        <v>0.68419612862841805</v>
       </c>
       <c r="F9">
         <v>0.342857142</v>
@@ -879,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.157782505352699</v>
+        <v>0.33399994326799598</v>
       </c>
       <c r="F10">
         <v>0.47538461599999998</v>
@@ -902,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.31660475419562001</v>
+        <v>0.25694256228182399</v>
       </c>
       <c r="F11">
         <v>0.54933333399999995</v>
@@ -925,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.26284162385384802</v>
+        <v>0.30302896389003098</v>
       </c>
       <c r="F12">
         <v>8.4000000000000005E-2</v>
@@ -948,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.58839580501856303</v>
+        <v>0.49509712743777101</v>
       </c>
       <c r="F13">
         <v>0.42399999999999999</v>
@@ -994,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.374907017024811</v>
+        <v>0.41736630286314003</v>
       </c>
       <c r="F15">
         <v>0.34153846199999999</v>
@@ -1017,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.359014164124283</v>
+        <v>8.4980654618343199E-2</v>
       </c>
       <c r="F16">
         <v>0.37066666599999898</v>
@@ -1040,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.8887238090546699E-2</v>
+        <v>0.16530939016465199</v>
       </c>
       <c r="F17">
         <v>0.107999999999999</v>
@@ -1063,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.4346026995560301E-2</v>
+        <v>0.236573618469992</v>
       </c>
       <c r="F18">
         <v>0.62714285800000003</v>
@@ -1086,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.26486493277894502</v>
+        <v>0.162683530632036</v>
       </c>
       <c r="F19">
         <v>0.55333333399999896</v>
@@ -1109,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.85537194913748904</v>
+        <v>0.80727470191138595</v>
       </c>
       <c r="F20">
         <v>0.37230769199999902</v>
@@ -1132,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.72069214710059004</v>
+        <v>0.51166586104206702</v>
       </c>
       <c r="F21">
         <v>0.104</v>
@@ -1155,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.2220309750041702E-3</v>
+        <v>0.28878260357221203</v>
       </c>
       <c r="F22">
         <v>0.31733333399999902</v>
@@ -1178,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.26469212164834099</v>
+        <v>0.12856023275535999</v>
       </c>
       <c r="F23">
         <v>0.59599999999999997</v>
@@ -1201,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.237256469170466</v>
+        <v>9.8381191034091806E-2</v>
       </c>
       <c r="F24">
         <v>0.62142857200000001</v>
@@ -1224,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.87668410183146805</v>
+        <v>0.71327407359032702</v>
       </c>
       <c r="F25">
         <v>0.49333333399999901</v>
@@ -1247,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.60047149056688098</v>
+        <v>0.73718931170858004</v>
       </c>
       <c r="F26">
         <v>0.133333334</v>
@@ -1270,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.21561032037750899</v>
+        <v>0.117183511397457</v>
       </c>
       <c r="F27">
         <v>0.55733333399999996</v>
@@ -1293,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.26171537909190101</v>
+        <v>0.14058609751342199</v>
       </c>
       <c r="F28">
         <v>0.42307692400000002</v>
@@ -1310,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.46915312247854601</v>
+        <v>1.0135815965864299E-2</v>
       </c>
       <c r="F29">
         <v>0.59285714199999995</v>
@@ -1333,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.242459882483294</v>
+        <v>0.50027944035039096</v>
       </c>
       <c r="F30">
         <v>0.56666666600000004</v>
@@ -1362,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.464106211258762</v>
+        <v>0.66801152025788402</v>
       </c>
       <c r="F31">
         <v>0.29428571399999998</v>
@@ -1379,19 +1535,19 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.22935369166307401</v>
+        <v>0.39521104106047</v>
       </c>
       <c r="F32">
         <v>0.14000000000000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.71830958038347203</v>
+        <v>0.74564348323714102</v>
       </c>
       <c r="F33">
         <v>0.18266666599999901</v>
@@ -1431,30 +1587,30 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.343160085503593</v>
+        <v>8.1026456565583202E-3</v>
       </c>
       <c r="F34">
         <v>2.9333333999999898E-2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.80179843235192905</v>
+        <v>0.29688608909685099</v>
       </c>
       <c r="F35">
         <v>0.39714285799999999</v>
@@ -1477,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>9.7028682151732895E-2</v>
+        <v>0.22769159032745401</v>
       </c>
       <c r="F36">
         <v>0.62428571399999999</v>
@@ -1500,18 +1656,18 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.57774999985213205</v>
+        <v>0.415979271281748</v>
       </c>
       <c r="F37">
         <v>0.42249999999999999</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1523,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.33434825020018399</v>
+        <v>0.28201168009161198</v>
       </c>
       <c r="F38">
         <v>0.22</v>
@@ -1546,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.21283057335583</v>
+        <v>0.11320884276054199</v>
       </c>
       <c r="F39">
         <v>0.16666666599999999</v>
@@ -1569,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.91443516685125903</v>
+        <v>0.363188860557771</v>
       </c>
       <c r="F40">
         <v>0.71599999999999997</v>
@@ -1592,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.77566356804415904</v>
+        <v>0.62054147978518504</v>
       </c>
       <c r="F41">
         <v>4.6153839999999403E-3</v>
@@ -1615,18 +1771,18 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.187998687173378</v>
+        <v>2.1404514715851999E-2</v>
       </c>
       <c r="F42">
         <v>0.08</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1638,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.67396664794014305</v>
+        <v>0.391814752601504</v>
       </c>
       <c r="F43">
         <v>0.20533333400000001</v>
@@ -1661,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.30751408957007997</v>
+        <v>0.17715712923700899</v>
       </c>
       <c r="F44">
         <v>0.342857142</v>
@@ -1678,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.51822655366394099</v>
+        <v>0.18988913435546501</v>
       </c>
       <c r="F45">
         <v>0.51200000000000001</v>
@@ -1695,25 +1851,25 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.22404221497690199</v>
+        <v>0.39134045218095698</v>
       </c>
       <c r="F46">
         <v>0.22769230800000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1730,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.70044619277053</v>
+        <v>0.64381908360078799</v>
       </c>
       <c r="F47">
         <v>0.57428571399999995</v>
@@ -1747,19 +1903,19 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.705765788110707</v>
+        <v>0.216702881541639</v>
       </c>
       <c r="F48">
         <v>0.14000000000000001</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1776,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.123414208091223</v>
+        <v>9.0521337187999096E-2</v>
       </c>
       <c r="F49">
         <v>0.42266666600000002</v>
@@ -1799,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>6.5913795916139703E-2</v>
+        <v>7.9622167206070904E-2</v>
       </c>
       <c r="F50">
         <v>0.30249999999999999</v>
@@ -1822,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.52695096065103897</v>
+        <v>0.71685370067294996</v>
       </c>
       <c r="F51">
         <v>0.06</v>
@@ -1833,7 +1989,7 @@
     </row>
     <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1845,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.96072063079817505</v>
+        <v>0.92848000679745601</v>
       </c>
       <c r="F52">
         <v>4.8571428E-2</v>
@@ -1868,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.81920424784924295</v>
+        <v>0.65323112926207305</v>
       </c>
       <c r="F53">
         <v>0.27</v>
@@ -1879,7 +2035,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1891,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F54">
         <v>0.13285714200000001</v>
@@ -1902,7 +2058,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1914,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.71057335968275304</v>
+        <v>0.63525370936554704</v>
       </c>
       <c r="F55">
         <v>0.21714285799999999</v>
@@ -1928,12 +2084,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89321AF-DEDB-46C6-A08A-52CA68592553}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,10 +2112,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1968,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1985,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.76865312991559898</v>
+        <v>0.62060304908765496</v>
       </c>
       <c r="F2">
         <v>0.462857142</v>
@@ -2008,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.74547769737607505</v>
+        <v>0.33978565302691399</v>
       </c>
       <c r="F3">
         <v>0.305714285999999</v>
@@ -2031,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.90203994067405802</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.54666666600000002</v>
@@ -2054,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.62583974923742003</v>
+        <v>0.47395607488029201</v>
       </c>
       <c r="F5">
         <v>0.40571428599999898</v>
@@ -2077,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.33559209128173201</v>
+        <v>0.43818138185611699</v>
       </c>
       <c r="F6">
         <v>0.182857142</v>
@@ -2100,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.108345492516339</v>
+        <v>3.51295905965109E-3</v>
       </c>
       <c r="F7">
         <v>0.29857142799999897</v>
@@ -2123,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.49916733362932503</v>
+        <v>0.45135161986903799</v>
       </c>
       <c r="F8">
         <v>0.55466666599999903</v>
@@ -2146,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.73791363231444196</v>
       </c>
       <c r="F9">
         <v>0.342857142</v>
@@ -2169,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.7299912330239298E-2</v>
+        <v>0.104543821961289</v>
       </c>
       <c r="F10">
         <v>0.47538461599999998</v>
@@ -2192,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.63482425192043401</v>
+        <v>0.63137708354231104</v>
       </c>
       <c r="F11">
         <v>0.54933333399999995</v>
@@ -2215,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.463422024645258</v>
+        <v>0.15600543032184799</v>
       </c>
       <c r="F12">
         <v>8.4000000000000005E-2</v>
@@ -2238,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.75642438462077399</v>
+        <v>0.65678390027599798</v>
       </c>
       <c r="F13">
         <v>0.42399999999999999</v>
@@ -2261,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.34063829254641997</v>
+        <v>0.49514248758354701</v>
       </c>
       <c r="F14">
         <v>0.61833333399999901</v>
@@ -2284,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.33360437858686398</v>
+        <v>0.25564603049757101</v>
       </c>
       <c r="F15">
         <v>0.34153846199999999</v>
@@ -2307,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.17395138618520001</v>
+        <v>0.14573247663168001</v>
       </c>
       <c r="F16">
         <v>0.37066666599999898</v>
@@ -2324,19 +2480,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.7989629734633303E-2</v>
+        <v>0.444110146250357</v>
       </c>
       <c r="F17">
         <v>0.107999999999999</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.2635955802371994E-2</v>
+        <v>8.4993564525883691E-3</v>
       </c>
       <c r="F18">
         <v>0.62714285800000003</v>
@@ -2376,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.32744020719822198</v>
+        <v>0.27182771293028102</v>
       </c>
       <c r="F19">
         <v>0.55333333399999896</v>
@@ -2393,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.32043742322027402</v>
+        <v>0.50076439056794197</v>
       </c>
       <c r="F20">
         <v>0.37230769199999902</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2422,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.66959496743541402</v>
+        <v>0.40748098057342802</v>
       </c>
       <c r="F21">
         <v>0.104</v>
@@ -2445,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.9118289952441799E-2</v>
+        <v>0.12529049174439399</v>
       </c>
       <c r="F22">
         <v>0.31733333399999902</v>
@@ -2468,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>3.3091106595120198E-2</v>
+        <v>0.15032984510319899</v>
       </c>
       <c r="F23">
         <v>0.59599999999999997</v>
@@ -2485,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.31499640982628102</v>
+        <v>0.29620332557492002</v>
       </c>
       <c r="F24">
         <v>0.62142857200000001</v>
@@ -2514,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.64072905752511</v>
+        <v>0.71094313401683595</v>
       </c>
       <c r="F25">
         <v>0.49333333399999901</v>
@@ -2537,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.70206456323286504</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0.133333334</v>
@@ -2560,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.20215507473347599</v>
+        <v>7.4136702535139196E-2</v>
       </c>
       <c r="F27">
         <v>0.55733333399999996</v>
@@ -2583,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.445293299353826</v>
+        <v>0.36972738064898603</v>
       </c>
       <c r="F28">
         <v>0.42307692400000002</v>
@@ -2600,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.60183488719049205</v>
+        <v>9.7563028212681396E-2</v>
       </c>
       <c r="F29">
         <v>0.59285714199999995</v>
@@ -2629,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.368976386930427</v>
+        <v>0.52761135312260998</v>
       </c>
       <c r="F30">
         <v>0.56666666600000004</v>
@@ -2652,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.44555873875574997</v>
+        <v>0.64786291377395</v>
       </c>
       <c r="F31">
         <v>0.29428571399999998</v>
@@ -2675,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>8.0396632296313705E-2</v>
+        <v>1.3803399444889499E-2</v>
       </c>
       <c r="F32">
         <v>0.14000000000000001</v>
@@ -2698,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.156683018858922</v>
+        <v>0.23691781215582</v>
       </c>
       <c r="F33">
         <v>0.18266666599999901</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>6.7186737307513497E-3</v>
+        <v>0.32419331702917398</v>
       </c>
       <c r="F34">
         <v>2.9333333999999898E-2</v>
@@ -2732,19 +2888,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.30348312445999198</v>
+        <v>0.319280423921603</v>
       </c>
       <c r="F35">
         <v>0.39714285799999999</v>
@@ -2767,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.73341180143225904</v>
+        <v>0.548878063001498</v>
       </c>
       <c r="F36">
         <v>0.62428571399999999</v>
@@ -2790,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.46305902954810402</v>
+        <v>0.46841540904353401</v>
       </c>
       <c r="F37">
         <v>0.42249999999999999</v>
@@ -2801,19 +2957,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.144543458370199</v>
+        <v>0.37504569944646798</v>
       </c>
       <c r="F38">
         <v>0.22</v>
@@ -2836,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.28187013784397003</v>
+        <v>0.37766135376694698</v>
       </c>
       <c r="F39">
         <v>0.16666666599999999</v>
@@ -2859,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.999999999999999</v>
+        <v>0.63101303914682105</v>
       </c>
       <c r="F40">
         <v>0.71599999999999997</v>
@@ -2882,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1.7799672925739501E-2</v>
+        <v>0.10053845083851599</v>
       </c>
       <c r="F41">
         <v>4.6153839999999403E-3</v>
@@ -2905,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.368979502822329</v>
+        <v>0.77123382065537804</v>
       </c>
       <c r="F42">
         <v>0.08</v>
@@ -2916,7 +3072,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2928,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>6.02311462583702E-2</v>
+        <v>2.1700574154917301E-2</v>
       </c>
       <c r="F43">
         <v>0.20533333400000001</v>
@@ -2951,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.34058143075178798</v>
+        <v>0.15089291528548099</v>
       </c>
       <c r="F44">
         <v>0.342857142</v>
@@ -2974,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.62813856824370995</v>
+        <v>0.72164345357507298</v>
       </c>
       <c r="F45">
         <v>0.51200000000000001</v>
@@ -2985,25 +3141,25 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.22117590907854101</v>
+        <v>0.29628503599921702</v>
       </c>
       <c r="F46">
         <v>0.22769230800000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,13 +3170,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.243776104061007</v>
+        <v>0.76603544771728305</v>
       </c>
       <c r="F47">
         <v>0.57428571399999995</v>
@@ -3037,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>8.2417104695698407E-2</v>
+        <v>0.30124558570902399</v>
       </c>
       <c r="F48">
         <v>0.14000000000000001</v>
@@ -3066,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>4.4251185143857601E-3</v>
+        <v>0.25737489342485897</v>
       </c>
       <c r="F49">
         <v>0.42266666600000002</v>
@@ -3089,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.26959636752816901</v>
+        <v>0.38597504979631497</v>
       </c>
       <c r="F50">
         <v>0.30249999999999999</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.237739616188613</v>
+        <v>8.2469167238502394E-2</v>
       </c>
       <c r="F51">
         <v>0.06</v>
@@ -3123,7 +3279,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3135,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.37749566856795702</v>
+        <v>0.468027907749821</v>
       </c>
       <c r="F52">
         <v>4.8571428E-2</v>
@@ -3158,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.545463714265771</v>
+        <v>0.47872140557163401</v>
       </c>
       <c r="F53">
         <v>0.27</v>
@@ -3169,7 +3325,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3181,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.70527667503904501</v>
+        <v>0.99660844562128104</v>
       </c>
       <c r="F54">
         <v>0.13285714200000001</v>
@@ -3192,7 +3348,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3204,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.58847257770852102</v>
+        <v>0.67432705478404298</v>
       </c>
       <c r="F55">
         <v>0.21714285799999999</v>
@@ -3218,12 +3374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4CA6D7-1A6A-4309-A5DF-50D373B750FE}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,10 +3401,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3257,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3274,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.87994964022368205</v>
+        <v>0.53362243211330596</v>
       </c>
       <c r="F2">
         <v>0.462857142</v>
@@ -3297,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.38406230833211602</v>
+        <v>0.309255554270087</v>
       </c>
       <c r="F3">
         <v>0.305714285999999</v>
@@ -3343,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.3479008158016501E-2</v>
+        <v>7.2449149683325095E-2</v>
       </c>
       <c r="F5">
         <v>0.40571428599999898</v>
@@ -3366,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.48003040997697499</v>
+        <v>0.13966517037002699</v>
       </c>
       <c r="F6">
         <v>0.182857142</v>
@@ -3389,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.9597105438283799E-3</v>
+        <v>0.111112147532512</v>
       </c>
       <c r="F7">
         <v>0.29857142799999897</v>
@@ -3412,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.102433347034819</v>
+        <v>4.44144625168401E-2</v>
       </c>
       <c r="F8">
         <v>0.55466666599999903</v>
@@ -3435,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.6558038815164298E-2</v>
+        <v>0.39624167459931198</v>
       </c>
       <c r="F9">
         <v>0.342857142</v>
@@ -3458,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.11429341614194601</v>
+        <v>0.35404334227043899</v>
       </c>
       <c r="F10">
         <v>0.47538461599999998</v>
@@ -3481,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.14665932402210599</v>
+        <v>0.26307619706562801</v>
       </c>
       <c r="F11">
         <v>0.54933333399999995</v>
@@ -3504,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.37646278187689503</v>
+        <v>0.325905809390863</v>
       </c>
       <c r="F12">
         <v>8.4000000000000005E-2</v>
@@ -3521,19 +3677,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.43042260456126502</v>
+        <v>0.59739474519698998</v>
       </c>
       <c r="F13">
         <v>0.42399999999999999</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.201874313993783</v>
+        <v>6.9707437007065998E-2</v>
       </c>
       <c r="F14">
         <v>0.61833333399999901</v>
@@ -3573,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.49082716444412899</v>
+        <v>0.37440279769141299</v>
       </c>
       <c r="F15">
         <v>0.34153846199999999</v>
@@ -3596,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.45638723669668102</v>
+        <v>0.27796106262360798</v>
       </c>
       <c r="F16">
         <v>0.37066666599999898</v>
@@ -3619,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.59091246049491997</v>
+        <v>0.43636459836286801</v>
       </c>
       <c r="F17">
         <v>0.107999999999999</v>
@@ -3642,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.36869051561754401</v>
+        <v>0.49802684684507997</v>
       </c>
       <c r="F18">
         <v>0.62714285800000003</v>
@@ -3665,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.33757133793761301</v>
+        <v>0.32529656700267001</v>
       </c>
       <c r="F19">
         <v>0.55333333399999896</v>
@@ -3688,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.27922172205263301</v>
+        <v>8.3296528627664498E-2</v>
       </c>
       <c r="F20">
         <v>0.37230769199999902</v>
@@ -3705,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.55713150157431501</v>
+        <v>0.596657621335418</v>
       </c>
       <c r="F21">
         <v>0.104</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3734,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.0085748305822901E-2</v>
+        <v>0.114265718049377</v>
       </c>
       <c r="F22">
         <v>0.31733333399999902</v>
@@ -3757,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.23582716298658299</v>
+        <v>2.9464045680125998E-2</v>
       </c>
       <c r="F23">
         <v>0.59599999999999997</v>
@@ -3780,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.187095989212618</v>
+        <v>0.11480729305284899</v>
       </c>
       <c r="F24">
         <v>0.62142857200000001</v>
@@ -3803,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.38446687667430002</v>
+        <v>5.0547320985892E-2</v>
       </c>
       <c r="F25">
         <v>0.49333333399999901</v>
@@ -3826,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.11001929172424001</v>
+        <v>6.4752507907784404E-2</v>
       </c>
       <c r="F26">
         <v>0.133333334</v>
@@ -3849,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.108170933629378</v>
+        <v>1.7711451761545999E-2</v>
       </c>
       <c r="F27">
         <v>0.55733333399999996</v>
@@ -3872,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.22862460566340101</v>
+        <v>0.35371522972561398</v>
       </c>
       <c r="F28">
         <v>0.42307692400000002</v>
@@ -3895,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.60082795402857803</v>
       </c>
       <c r="F29">
         <v>0.59285714199999995</v>
@@ -3918,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.79281538933888296</v>
+        <v>0.59116101974346702</v>
       </c>
       <c r="F30">
         <v>0.56666666600000004</v>
@@ -3941,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3.9224870543083802E-2</v>
+        <v>2.46509591741155E-2</v>
       </c>
       <c r="F31">
         <v>0.29428571399999998</v>
@@ -3958,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>3.7538414075146798E-2</v>
+        <v>0.32040892646308</v>
       </c>
       <c r="F32">
         <v>0.14000000000000001</v>
@@ -3987,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.46262309616167702</v>
+        <v>0.37900512546667697</v>
       </c>
       <c r="F33">
         <v>0.18266666599999901</v>
@@ -4010,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.439843458180462</v>
+        <v>0.34591286573276397</v>
       </c>
       <c r="F34">
         <v>2.9333333999999898E-2</v>
@@ -4021,25 +4177,25 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.60497672632280397</v>
+        <v>0.55974406150847</v>
       </c>
       <c r="F35">
         <v>0.39714285799999999</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4050,13 +4206,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.76435566417738698</v>
+        <v>0.492505512674693</v>
       </c>
       <c r="F36">
         <v>0.62428571399999999</v>
@@ -4073,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.24129373255227901</v>
+        <v>0.50518674594550395</v>
       </c>
       <c r="F37">
         <v>0.42249999999999999</v>
@@ -4090,7 +4246,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4102,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.52282323588862001</v>
+        <v>0.47606919491286998</v>
       </c>
       <c r="F38">
         <v>0.22</v>
@@ -4125,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.41315237913517899</v>
+        <v>4.91313929963961E-2</v>
       </c>
       <c r="F39">
         <v>0.16666666599999999</v>
@@ -4142,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.72407283279968104</v>
+        <v>0.37664151590068301</v>
       </c>
       <c r="F40">
         <v>0.71599999999999997</v>
@@ -4171,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.41098163836106599</v>
+        <v>0.39207743160276098</v>
       </c>
       <c r="F41">
         <v>4.6153839999999403E-3</v>
@@ -4194,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.47588538573605899</v>
+        <v>0.347477210419464</v>
       </c>
       <c r="F42">
         <v>0.08</v>
@@ -4205,7 +4361,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4217,13 +4373,13 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.26244983823200602</v>
+        <v>1.6382157133249201E-2</v>
       </c>
       <c r="F43">
         <v>0.20533333400000001</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,19 +4390,19 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.19017271679207301</v>
+        <v>0.30575606749820999</v>
       </c>
       <c r="F44">
         <v>0.342857142</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,42 +4413,42 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.20719913498599901</v>
+        <v>0.10775561933625299</v>
       </c>
       <c r="F45">
         <v>0.51200000000000001</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.50264670324303296</v>
+        <v>0.55746252116501205</v>
       </c>
       <c r="F46">
         <v>0.22769230800000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4309,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.86812461014272302</v>
+        <v>0.94640492933490095</v>
       </c>
       <c r="F47">
         <v>0.57428571399999995</v>
@@ -4332,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.68927718018459305</v>
+        <v>0.92215305870807995</v>
       </c>
       <c r="F48">
         <v>0.14000000000000001</v>
@@ -4349,19 +4505,19 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.24412177465937801</v>
+        <v>0.121021750453773</v>
       </c>
       <c r="F49">
         <v>0.42266666600000002</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4372,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.16048161303262901</v>
+        <v>0.32316089820558702</v>
       </c>
       <c r="F50">
         <v>0.30249999999999999</v>
@@ -4401,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.83551843076431098</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0.06</v>
@@ -4412,7 +4568,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4424,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.92442152542657097</v>
+        <v>0.98347097377371295</v>
       </c>
       <c r="F52">
         <v>4.8571428E-2</v>
@@ -4441,13 +4597,13 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.141770494139943</v>
+        <v>0.37742206949503598</v>
       </c>
       <c r="F53">
         <v>0.27</v>
@@ -4458,7 +4614,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4470,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.75065698416669802</v>
+        <v>0.81293694975592001</v>
       </c>
       <c r="F54">
         <v>0.13285714200000001</v>
@@ -4481,7 +4637,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4493,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.35526113761029499</v>
+        <v>0.22931782428719</v>
       </c>
       <c r="F55">
         <v>0.21714285799999999</v>
@@ -4507,7 +4663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05345A79-0C3E-4CB4-94C2-F3400A75A1B0}">
   <dimension ref="A1:G55"/>
   <sheetViews>
@@ -4536,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4548,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4732,7 +4888,7 @@
         <v>0.342857142</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5192,7 +5348,7 @@
         <v>0.59285714199999995</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5203,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5215,7 +5371,7 @@
         <v>0.56666666600000004</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5249,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -5261,7 +5417,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5312,13 +5468,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -5330,7 +5486,7 @@
         <v>0.39714285799999999</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5341,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5353,7 +5509,7 @@
         <v>0.62428571399999999</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5381,7 +5537,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5433,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5445,7 +5601,7 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5496,7 +5652,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5525,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5537,7 +5693,7 @@
         <v>0.342857142</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5548,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5560,12 +5716,12 @@
         <v>0.51200000000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5617,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5629,7 +5785,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5640,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -5652,7 +5808,7 @@
         <v>0.42266666600000002</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5663,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5675,7 +5831,7 @@
         <v>0.30249999999999999</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,7 +5859,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5732,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5744,12 +5900,12 @@
         <v>0.27</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5772,7 +5928,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -5798,12 +5954,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16478B7-C9C1-4AF1-B0DF-26D6F7DCCB30}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -5839,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5856,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.84404454239766902</v>
+        <v>0.36803423154598502</v>
       </c>
       <c r="F2">
         <v>0.462857142</v>
@@ -5879,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.79369625408815203</v>
+        <v>0.198216000036715</v>
       </c>
       <c r="F3">
         <v>0.305714285999999</v>
@@ -5902,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.64740695039682505</v>
+        <v>0.437854331240283</v>
       </c>
       <c r="F4">
         <v>0.54666666600000002</v>
@@ -5925,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.20766473661172799</v>
+        <v>0.233993841383666</v>
       </c>
       <c r="F5">
         <v>0.40571428599999898</v>
@@ -5948,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.39412731837323001</v>
+        <v>0.77612702341676298</v>
       </c>
       <c r="F6">
         <v>0.182857142</v>
@@ -5971,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.49099785903228099</v>
+        <v>1.4940722984924101E-2</v>
       </c>
       <c r="F7">
         <v>0.29857142799999897</v>
@@ -5994,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.42873271474672803</v>
+        <v>0.52683513990118502</v>
       </c>
       <c r="F8">
         <v>0.55466666599999903</v>
@@ -6017,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.43354632590028902</v>
+        <v>0.20211312832612999</v>
       </c>
       <c r="F9">
         <v>0.342857142</v>
@@ -6040,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.68011158322492504</v>
+        <v>0.62904795145671999</v>
       </c>
       <c r="F10">
         <v>0.47538461599999998</v>
@@ -6063,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.40097117434032897</v>
+        <v>6.2655951035114496E-2</v>
       </c>
       <c r="F11">
         <v>0.54933333399999995</v>
@@ -6086,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.32512585709452402</v>
+        <v>0.13255332453841701</v>
       </c>
       <c r="F12">
         <v>8.4000000000000005E-2</v>
@@ -6109,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.63528286012339197</v>
       </c>
       <c r="F13">
         <v>0.42399999999999999</v>
@@ -6132,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.98742089419910295</v>
+        <v>0.96046829257097499</v>
       </c>
       <c r="F14">
         <v>0.61833333399999901</v>
@@ -6155,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.22134618171647999</v>
+        <v>0.13713257549039601</v>
       </c>
       <c r="F15">
         <v>0.34153846199999999</v>
@@ -6178,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.73833874411384204</v>
+        <v>0.26434977368595902</v>
       </c>
       <c r="F16">
         <v>0.37066666599999898</v>
@@ -6195,19 +6351,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.174270789087379</v>
+        <v>0.59018314068550604</v>
       </c>
       <c r="F17">
         <v>0.107999999999999</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6218,13 +6374,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.25823973081852097</v>
+        <v>0.18274422441931801</v>
       </c>
       <c r="F18">
         <v>0.62714285800000003</v>
@@ -6247,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.33046110908731202</v>
+        <v>0.57605430708588801</v>
       </c>
       <c r="F19">
         <v>0.55333333399999896</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6270,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.52990660047247096</v>
+        <v>0.72446666055520403</v>
       </c>
       <c r="F20">
         <v>0.37230769199999902</v>
@@ -6293,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.44678220969270099</v>
+        <v>0.50450469902161199</v>
       </c>
       <c r="F21">
         <v>0.104</v>
@@ -6316,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.24702180772253701</v>
+        <v>4.28138931407663E-2</v>
       </c>
       <c r="F22">
         <v>0.31733333399999902</v>
@@ -6339,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.32579524919396702</v>
+        <v>0.14300491377242799</v>
       </c>
       <c r="F23">
         <v>0.59599999999999997</v>
@@ -6362,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.52686597969445703</v>
+        <v>0.205418669217244</v>
       </c>
       <c r="F24">
         <v>0.62142857200000001</v>
@@ -6385,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.73187741949780305</v>
+        <v>0.86309902031214703</v>
       </c>
       <c r="F25">
         <v>0.49333333399999901</v>
@@ -6408,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.42713101836662298</v>
+        <v>0.82266511750591698</v>
       </c>
       <c r="F26">
         <v>0.133333334</v>
@@ -6431,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.18241186269950299</v>
+        <v>2.3006419375456801E-2</v>
       </c>
       <c r="F27">
         <v>0.55733333399999996</v>
@@ -6454,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.17077361547196299</v>
+        <v>2.5107689063815299E-2</v>
       </c>
       <c r="F28">
         <v>0.42307692400000002</v>
@@ -6471,13 +6627,13 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.43504148863646602</v>
+        <v>0.111982953814103</v>
       </c>
       <c r="F29">
         <v>0.59285714199999995</v>
@@ -6500,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>3.2897503103772201E-2</v>
+        <v>0.41862938100443903</v>
       </c>
       <c r="F30">
         <v>0.56666666600000004</v>
@@ -6523,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4.3306929937311597E-2</v>
+        <v>0.31810177111592602</v>
       </c>
       <c r="F31">
         <v>0.29428571399999998</v>
@@ -6540,19 +6696,19 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.176160594248432</v>
+        <v>0.46484931973677202</v>
       </c>
       <c r="F32">
         <v>0.14000000000000001</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6569,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.72530399364931097</v>
+        <v>0.89833024501779102</v>
       </c>
       <c r="F33">
         <v>0.18266666599999901</v>
@@ -6586,13 +6742,13 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>2.1362603599265999E-2</v>
+        <v>0.46776429669871</v>
       </c>
       <c r="F34">
         <v>2.9333333999999898E-2</v>
@@ -6603,7 +6759,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6615,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.38538312122408802</v>
+        <v>2.2576586397458E-2</v>
       </c>
       <c r="F35">
         <v>0.39714285799999999</v>
@@ -6638,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1.04812770569595E-2</v>
+        <v>5.86053468597834E-2</v>
       </c>
       <c r="F36">
         <v>0.62428571399999999</v>
@@ -6661,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.82641581262674202</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0.42249999999999999</v>
@@ -6672,19 +6828,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>9.8107965619536303E-2</v>
+        <v>0.48774373749452199</v>
       </c>
       <c r="F38">
         <v>0.22</v>
@@ -6707,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2.2579951116838699E-2</v>
+        <v>0.34766385922675103</v>
       </c>
       <c r="F39">
         <v>0.16666666599999999</v>
@@ -6724,13 +6880,13 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.6387987018854</v>
+        <v>0.35506203331252001</v>
       </c>
       <c r="F40">
         <v>0.71599999999999997</v>
@@ -6753,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.54125249909253903</v>
+        <v>0.76277317356046204</v>
       </c>
       <c r="F41">
         <v>4.6153839999999403E-3</v>
@@ -6776,18 +6932,18 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>9.2737163567641001E-2</v>
+        <v>3.6514760595112099E-2</v>
       </c>
       <c r="F42">
         <v>0.08</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6799,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.557403390933498</v>
+        <v>0.39726220541151702</v>
       </c>
       <c r="F43">
         <v>0.20533333400000001</v>
@@ -6822,13 +6978,13 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.44127895558192998</v>
+        <v>5.43561870555134E-2</v>
       </c>
       <c r="F44">
         <v>0.342857142</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6845,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0.480965635733482</v>
+        <v>0.21822793590603801</v>
       </c>
       <c r="F45">
         <v>0.51200000000000001</v>
@@ -6856,25 +7012,25 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.11777086494575</v>
+        <v>0.68443731267523</v>
       </c>
       <c r="F46">
         <v>0.22769230800000001</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6891,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.45631698518043701</v>
+        <v>0.91717836348065596</v>
       </c>
       <c r="F47">
         <v>0.57428571399999995</v>
@@ -6914,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.31639549950381601</v>
+        <v>0.53072263566748101</v>
       </c>
       <c r="F48">
         <v>0.14000000000000001</v>
@@ -6937,13 +7093,13 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.65137332016090799</v>
+        <v>0.115125870992146</v>
       </c>
       <c r="F49">
         <v>0.42266666600000002</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6960,13 +7116,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.71986731923552805</v>
+        <v>6.2820237109819904E-2</v>
       </c>
       <c r="F50">
         <v>0.30249999999999999</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6977,24 +7133,24 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.28570317617833202</v>
+        <v>0.319198215032165</v>
       </c>
       <c r="F51">
         <v>0.06</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7006,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.96667700139232704</v>
       </c>
       <c r="F52">
         <v>4.8571428E-2</v>
@@ -7029,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.68209716392220199</v>
+        <v>0.60218222927562304</v>
       </c>
       <c r="F53">
         <v>0.27</v>
@@ -7040,7 +7196,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7052,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.98317166989168903</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0.13285714200000001</v>
@@ -7063,7 +7219,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7075,1298 +7231,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.88172200915321497</v>
-      </c>
-      <c r="F55">
-        <v>0.21714285799999999</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51ED826-8BCF-404A-89CD-5A7F46829034}">
-  <dimension ref="A1:G55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.462857142</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.305714285999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.54666666600000002</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.40571428599999898</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.182857142</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.29857142799999897</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.55466666599999903</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.342857142</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.47538461599999998</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.54933333399999995</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.61833333399999901</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.34153846199999999</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.37066666599999898</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.107999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.62714285800000003</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.55333333399999896</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.37230769199999902</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.104</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.31733333399999902</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.62142857200000001</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.49333333399999901</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.133333334</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.55733333399999996</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.42307692400000002</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.59285714199999995</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.56666666600000004</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.29428571399999998</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.18266666599999901</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2.9333333999999898E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.39714285799999999</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.62428571399999999</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.22</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0.16666666599999999</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>4.6153839999999403E-3</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0.08</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0.20533333400000001</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0.342857142</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0.22769230800000001</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0.57428571399999995</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0.42266666600000002</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0.06</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>4.8571428E-2</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0.27</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0.13285714200000001</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+        <v>0.47287083742559499</v>
       </c>
       <c r="F55">
         <v>0.21714285799999999</v>
@@ -8384,7 +7249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB990BE-A341-488A-8F87-BC5CBA5A6403}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -8409,10 +7274,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -8421,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9185,7 +8050,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -9254,7 +8119,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9369,7 +8234,7 @@
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -9438,7 +8303,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -9576,7 +8441,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -9622,7 +8487,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9645,7 +8510,1298 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.21714285799999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51ED826-8BCF-404A-89CD-5A7F46829034}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.462857142</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.305714285999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.54666666600000002</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.40571428599999898</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.182857142</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.29857142799999897</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.55466666599999903</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.342857142</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.47538461599999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.54933333399999995</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.61833333399999901</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.34153846199999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.37066666599999898</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.107999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.62714285800000003</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.55333333399999896</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.37230769199999902</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.104</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.31733333399999902</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.62142857200000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.49333333399999901</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.133333334</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.55733333399999996</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.42307692400000002</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.59285714199999995</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.56666666600000004</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.29428571399999998</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.18266666599999901</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2.9333333999999898E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.39714285799999999</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.62428571399999999</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.22</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.16666666599999999</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4.6153839999999403E-3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0.08</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.20533333400000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.342857142</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0.22769230800000001</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.57428571399999995</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0.42266666600000002</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0.06</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4.8571428E-2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.27</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.13285714200000001</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>

--- a/Solution3/Results/Results_Revised.xlsx
+++ b/Solution3/Results/Results_Revised.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B9E73-2EBC-452E-8EC3-11A6F688D0B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DBEC8-E3DA-4E75-A753-3C94E13BB8CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1440" windowWidth="24180" windowHeight="11505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled" sheetId="18" r:id="rId1"/>
     <sheet name="NoCrop" sheetId="12" r:id="rId2"/>
     <sheet name="CornerCrop" sheetId="11" r:id="rId3"/>
     <sheet name="MidCrop" sheetId="13" r:id="rId4"/>
-    <sheet name="AutomaticMuscleCrop" sheetId="10" r:id="rId5"/>
-    <sheet name="ManualMuscleCrop" sheetId="14" r:id="rId6"/>
-    <sheet name="AllBlack" sheetId="16" r:id="rId7"/>
-    <sheet name="AllWhite" sheetId="15" r:id="rId8"/>
+    <sheet name="RandomRectCrop" sheetId="19" r:id="rId5"/>
+    <sheet name="AutomaticMuscleCrop" sheetId="10" r:id="rId6"/>
+    <sheet name="ManualMuscleCrop" sheetId="14" r:id="rId7"/>
+    <sheet name="AllBlack" sheetId="16" r:id="rId8"/>
+    <sheet name="AllWhite" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="82">
   <si>
     <t>Image</t>
   </si>
@@ -690,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17285087-9FF6-4D16-86F3-B184EAB2C47C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -797,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9D5C02-F553-40D0-AA43-0F8704563EE2}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +815,7 @@
     <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -860,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -883,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -905,8 +906,12 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>5.3300179088902555E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -929,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -952,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -974,8 +979,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>-0.17404302775532421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2086,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89321AF-DEDB-46C6-A08A-52CA68592553}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2113,7 @@
     <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2150,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2218,8 +2227,12 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>0.23295454545454583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2241,8 +2254,12 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>8.5894881842814325E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2311,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2357,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2380,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2449,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -3376,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4CA6D7-1A6A-4309-A5DF-50D373B750FE}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3410,7 @@
     <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3462,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3507,8 +3524,12 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>0.1913829539560277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3530,8 +3551,12 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>-0.15687479313282915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3577,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3600,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3623,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3669,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3692,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3715,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -4664,11 +4689,3420 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7102BC79-8066-4082-955F-137710F4B166}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.462857142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.305714285999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.54666666600000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.40571428599999898</v>
+      </c>
+      <c r="H5" t="e">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.182857142</v>
+      </c>
+      <c r="H6" t="e">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.29857142799999897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.55466666599999903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.342857142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.47538461599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.54933333399999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.61833333399999901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.34153846199999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.37066666599999898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.107999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.62714285800000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.55333333399999896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.37230769199999902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.31733333399999902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.62142857200000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.49333333399999901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.133333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.55733333399999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.42307692400000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.59285714199999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.56666666600000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.29428571399999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.18266666599999901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2.9333333999999898E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.39714285799999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.62428571399999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.42249999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.16666666599999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>4.6153839999999403E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0.20533333400000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.342857142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.22769230800000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.57428571399999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0.42266666600000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.30249999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>4.8571428E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.13285714200000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.21714285799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05345A79-0C3E-4CB4-94C2-F3400A75A1B0}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.67423879667608</v>
+      </c>
+      <c r="F2">
+        <v>0.462857142</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5.4742797609482599E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.305714285999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.43355901477710201</v>
+      </c>
+      <c r="F4">
+        <v>0.54666666600000002</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.26562636495983499</v>
+      </c>
+      <c r="F5">
+        <v>0.40571428599999898</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>-6.0520603983218124E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.217722866768639</v>
+      </c>
+      <c r="F6">
+        <v>0.182857142</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>-1.2603338496743917E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.14853139692324499</v>
+      </c>
+      <c r="F7">
+        <v>0.29857142799999897</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.89207870125820099</v>
+      </c>
+      <c r="F8">
+        <v>0.55466666599999903</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.215429701159677</v>
+      </c>
+      <c r="F9">
+        <v>0.342857142</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.23800785916397399</v>
+      </c>
+      <c r="F10">
+        <v>0.47538461599999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.125679376070923</v>
+      </c>
+      <c r="F11">
+        <v>0.54933333399999995</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.177055972563642</v>
+      </c>
+      <c r="F12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.58735278851530803</v>
+      </c>
+      <c r="F13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.293611919905575</v>
+      </c>
+      <c r="F14">
+        <v>0.61833333399999901</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.9423766158534101E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.34153846199999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.58431667968906897</v>
+      </c>
+      <c r="F16">
+        <v>0.37066666599999898</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.11225136695404</v>
+      </c>
+      <c r="F17">
+        <v>0.107999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.61581829814869504</v>
+      </c>
+      <c r="F18">
+        <v>0.62714285800000003</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.26604058471563102</v>
+      </c>
+      <c r="F19">
+        <v>0.55333333399999896</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.14422550753420799</v>
+      </c>
+      <c r="F20">
+        <v>0.37230769199999902</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.121922886866466</v>
+      </c>
+      <c r="F21">
+        <v>0.104</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>6.4095887827367096E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.31733333399999902</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.110610748941408</v>
+      </c>
+      <c r="F23">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>8.4006108805868507E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.62142857200000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.924665938205811</v>
+      </c>
+      <c r="F25">
+        <v>0.49333333399999901</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.133333334</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.20481307316762201</v>
+      </c>
+      <c r="F27">
+        <v>0.55733333399999996</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.51020422114078101</v>
+      </c>
+      <c r="F28">
+        <v>0.42307692400000002</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.35361303240811198</v>
+      </c>
+      <c r="F29">
+        <v>0.59285714199999995</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.121891012832364</v>
+      </c>
+      <c r="F30">
+        <v>0.56666666600000004</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.10591732725613801</v>
+      </c>
+      <c r="F31">
+        <v>0.29428571399999998</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2.6660155516149499E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.40907209664754501</v>
+      </c>
+      <c r="F33">
+        <v>0.18266666599999901</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>8.1216216318487702E-2</v>
+      </c>
+      <c r="F34">
+        <v>2.9333333999999898E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>9.4390639655207803E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.39714285799999999</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2.3019780765238401E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.62428571399999999</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.31463363943888001</v>
+      </c>
+      <c r="F38">
+        <v>0.22</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.88110195628350296</v>
+      </c>
+      <c r="F39">
+        <v>0.16666666599999999</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>5.4085262961687502E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.75422400462261097</v>
+      </c>
+      <c r="F41">
+        <v>4.6153839999999403E-3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.24225884126237199</v>
+      </c>
+      <c r="F42">
+        <v>0.08</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.52685390958827405</v>
+      </c>
+      <c r="F43">
+        <v>0.20533333400000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.27625578366692</v>
+      </c>
+      <c r="F44">
+        <v>0.342857142</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>7.0293672052447798E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.45459178840568398</v>
+      </c>
+      <c r="F46">
+        <v>0.22769230800000001</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0.441596741840111</v>
+      </c>
+      <c r="F47">
+        <v>0.57428571399999995</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4.0903069219696601E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.159777211863113</v>
+      </c>
+      <c r="F49">
+        <v>0.42266666600000002</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>8.2695858995186805E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.24503735966651399</v>
+      </c>
+      <c r="F51">
+        <v>0.06</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.28037006645178503</v>
+      </c>
+      <c r="F52">
+        <v>4.8571428E-2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1.10181568000095E-3</v>
+      </c>
+      <c r="F53">
+        <v>0.27</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.37092442093346401</v>
+      </c>
+      <c r="F54">
+        <v>0.13285714200000001</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.49835772309962001</v>
+      </c>
+      <c r="F55">
+        <v>0.21714285799999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16478B7-C9C1-4AF1-B0DF-26D6F7DCCB30}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.36803423154598502</v>
+      </c>
+      <c r="F2">
+        <v>0.462857142</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.198216000036715</v>
+      </c>
+      <c r="F3">
+        <v>0.305714285999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.437854331240283</v>
+      </c>
+      <c r="F4">
+        <v>0.54666666600000002</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.233993841383666</v>
+      </c>
+      <c r="F5">
+        <v>0.40571428599999898</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>CORREL(C2:C55, D2:D55)</f>
+        <v>0.13325044772225655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.77612702341676298</v>
+      </c>
+      <c r="F6">
+        <v>0.182857142</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f>CORREL(E2:E55, F2:F55)</f>
+        <v>-0.22724301927930551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.4940722984924101E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.29857142799999897</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.52683513990118502</v>
+      </c>
+      <c r="F8">
+        <v>0.55466666599999903</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.20211312832612999</v>
+      </c>
+      <c r="F9">
+        <v>0.342857142</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.62904795145671999</v>
+      </c>
+      <c r="F10">
+        <v>0.47538461599999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>6.2655951035114496E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.54933333399999995</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.13255332453841701</v>
+      </c>
+      <c r="F12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.63528286012339197</v>
+      </c>
+      <c r="F13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.96046829257097499</v>
+      </c>
+      <c r="F14">
+        <v>0.61833333399999901</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.13713257549039601</v>
+      </c>
+      <c r="F15">
+        <v>0.34153846199999999</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.26434977368595902</v>
+      </c>
+      <c r="F16">
+        <v>0.37066666599999898</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.59018314068550604</v>
+      </c>
+      <c r="F17">
+        <v>0.107999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.18274422441931801</v>
+      </c>
+      <c r="F18">
+        <v>0.62714285800000003</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.57605430708588801</v>
+      </c>
+      <c r="F19">
+        <v>0.55333333399999896</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.72446666055520403</v>
+      </c>
+      <c r="F20">
+        <v>0.37230769199999902</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.50450469902161199</v>
+      </c>
+      <c r="F21">
+        <v>0.104</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4.28138931407663E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.31733333399999902</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.14300491377242799</v>
+      </c>
+      <c r="F23">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.205418669217244</v>
+      </c>
+      <c r="F24">
+        <v>0.62142857200000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.86309902031214703</v>
+      </c>
+      <c r="F25">
+        <v>0.49333333399999901</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.82266511750591698</v>
+      </c>
+      <c r="F26">
+        <v>0.133333334</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2.3006419375456801E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.55733333399999996</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.5107689063815299E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.42307692400000002</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.111982953814103</v>
+      </c>
+      <c r="F29">
+        <v>0.59285714199999995</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.41862938100443903</v>
+      </c>
+      <c r="F30">
+        <v>0.56666666600000004</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.31810177111592602</v>
+      </c>
+      <c r="F31">
+        <v>0.29428571399999998</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.46484931973677202</v>
+      </c>
+      <c r="F32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.89833024501779102</v>
+      </c>
+      <c r="F33">
+        <v>0.18266666599999901</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.46776429669871</v>
+      </c>
+      <c r="F34">
+        <v>2.9333333999999898E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2.2576586397458E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.39714285799999999</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5.86053468597834E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.62428571399999999</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.48774373749452199</v>
+      </c>
+      <c r="F38">
+        <v>0.22</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.34766385922675103</v>
+      </c>
+      <c r="F39">
+        <v>0.16666666599999999</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.35506203331252001</v>
+      </c>
+      <c r="F40">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.76277317356046204</v>
+      </c>
+      <c r="F41">
+        <v>4.6153839999999403E-3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3.6514760595112099E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.08</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.39726220541151702</v>
+      </c>
+      <c r="F43">
+        <v>0.20533333400000001</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5.43561870555134E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.342857142</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.21822793590603801</v>
+      </c>
+      <c r="F45">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.68443731267523</v>
+      </c>
+      <c r="F46">
+        <v>0.22769230800000001</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0.91717836348065596</v>
+      </c>
+      <c r="F47">
+        <v>0.57428571399999995</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.53072263566748101</v>
+      </c>
+      <c r="F48">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.115125870992146</v>
+      </c>
+      <c r="F49">
+        <v>0.42266666600000002</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>6.2820237109819904E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.319198215032165</v>
+      </c>
+      <c r="F51">
+        <v>0.06</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.96667700139232704</v>
+      </c>
+      <c r="F52">
+        <v>4.8571428E-2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.60218222927562304</v>
+      </c>
+      <c r="F53">
+        <v>0.27</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0.13285714200000001</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.47287083742559499</v>
+      </c>
+      <c r="F55">
+        <v>0.21714285799999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB990BE-A341-488A-8F87-BC5CBA5A6403}">
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4692,7 +8126,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
@@ -4704,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4721,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.67423879667608</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0.462857142</v>
@@ -4744,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.4742797609482599E-2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0.305714285999999</v>
@@ -4767,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.43355901477710201</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.54666666600000002</v>
@@ -4790,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.26562636495983499</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.40571428599999898</v>
@@ -4807,19 +8241,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.217722866768639</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.182857142</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4836,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.14853139692324499</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0.29857142799999897</v>
@@ -4859,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.89207870125820099</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.55466666599999903</v>
@@ -4876,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.215429701159677</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.342857142</v>
@@ -4905,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.23800785916397399</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.47538461599999998</v>
@@ -4928,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.125679376070923</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.54933333399999995</v>
@@ -4951,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.177055972563642</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>8.4000000000000005E-2</v>
@@ -4974,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.58735278851530803</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0.42399999999999999</v>
@@ -4997,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.293611919905575</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.61833333399999901</v>
@@ -5020,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.9423766158534101E-2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0.34153846199999999</v>
@@ -5043,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.58431667968906897</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0.37066666599999898</v>
@@ -5066,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.11225136695404</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0.107999999999999</v>
@@ -5089,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.61581829814869504</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0.62714285800000003</v>
@@ -5112,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.26604058471563102</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0.55333333399999896</v>
@@ -5135,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.14422550753420799</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0.37230769199999902</v>
@@ -5158,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.121922886866466</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0.104</v>
@@ -5181,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.4095887827367096E-2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0.31733333399999902</v>
@@ -5204,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.110610748941408</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0.59599999999999997</v>
@@ -5227,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.4006108805868507E-2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0.62142857200000001</v>
@@ -5244,19 +8678,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.924665938205811</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0.49333333399999901</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5279,7 +8713,7 @@
         <v>0.133333334</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.20481307316762201</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0.55733333399999996</v>
@@ -5313,19 +8747,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.51020422114078101</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0.42307692400000002</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,13 +8776,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.35361303240811198</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0.59285714199999995</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5365,13 +8799,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.121891012832364</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0.56666666600000004</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5388,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.10591732725613801</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0.29428571399999998</v>
@@ -5411,13 +8845,13 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>2.6660155516149499E-2</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0.14000000000000001</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,19 +8862,19 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.40907209664754501</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0.18266666599999901</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5457,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>8.1216216318487702E-2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>2.9333333999999898E-2</v>
@@ -5480,13 +8914,13 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>9.4390639655207803E-2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0.39714285799999999</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5503,13 +8937,13 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2.3019780765238401E-2</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0.62428571399999999</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5543,19 +8977,19 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.31463363943888001</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0.22</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -5566,19 +9000,19 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.88110195628350296</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0.16666666599999999</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5595,13 +9029,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>5.4085262961687502E-2</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0.71599999999999997</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,19 +9046,19 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.75422400462261097</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>4.6153839999999403E-3</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -5641,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.24225884126237199</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0.08</v>
@@ -5664,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.52685390958827405</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0.20533333400000001</v>
@@ -5687,13 +9121,13 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.27625578366692</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0.342857142</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5710,13 +9144,13 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>7.0293672052447798E-2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0.51200000000000001</v>
       </c>
       <c r="G45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,19 +9161,19 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.45459178840568398</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0.22769230800000001</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,19 +9184,19 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.441596741840111</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0.57428571399999995</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5779,13 +9213,13 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>4.0903069219696601E-2</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0.14000000000000001</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5802,13 +9236,13 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.159777211863113</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0.42266666600000002</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5825,13 +9259,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>8.2695858995186805E-2</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0.30249999999999999</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,19 +9276,19 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.24503735966651399</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0.06</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5865,19 +9299,19 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.28037006645178503</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>4.8571428E-2</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5894,13 +9328,13 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.10181568000095E-3</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0.27</v>
       </c>
       <c r="G53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,19 +9345,19 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.37092442093346401</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0.13285714200000001</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5940,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.49835772309962001</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0.21714285799999999</v>
@@ -5954,2589 +9388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16478B7-C9C1-4AF1-B0DF-26D6F7DCCB30}">
-  <dimension ref="A1:G55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.36803423154598502</v>
-      </c>
-      <c r="F2">
-        <v>0.462857142</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.198216000036715</v>
-      </c>
-      <c r="F3">
-        <v>0.305714285999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.437854331240283</v>
-      </c>
-      <c r="F4">
-        <v>0.54666666600000002</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.233993841383666</v>
-      </c>
-      <c r="F5">
-        <v>0.40571428599999898</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.77612702341676298</v>
-      </c>
-      <c r="F6">
-        <v>0.182857142</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1.4940722984924101E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.29857142799999897</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.52683513990118502</v>
-      </c>
-      <c r="F8">
-        <v>0.55466666599999903</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.20211312832612999</v>
-      </c>
-      <c r="F9">
-        <v>0.342857142</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.62904795145671999</v>
-      </c>
-      <c r="F10">
-        <v>0.47538461599999998</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>6.2655951035114496E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.54933333399999995</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0.13255332453841701</v>
-      </c>
-      <c r="F12">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.63528286012339197</v>
-      </c>
-      <c r="F13">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.96046829257097499</v>
-      </c>
-      <c r="F14">
-        <v>0.61833333399999901</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.13713257549039601</v>
-      </c>
-      <c r="F15">
-        <v>0.34153846199999999</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0.26434977368595902</v>
-      </c>
-      <c r="F16">
-        <v>0.37066666599999898</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.59018314068550604</v>
-      </c>
-      <c r="F17">
-        <v>0.107999999999999</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.18274422441931801</v>
-      </c>
-      <c r="F18">
-        <v>0.62714285800000003</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0.57605430708588801</v>
-      </c>
-      <c r="F19">
-        <v>0.55333333399999896</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0.72446666055520403</v>
-      </c>
-      <c r="F20">
-        <v>0.37230769199999902</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.50450469902161199</v>
-      </c>
-      <c r="F21">
-        <v>0.104</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>4.28138931407663E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.31733333399999902</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0.14300491377242799</v>
-      </c>
-      <c r="F23">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0.205418669217244</v>
-      </c>
-      <c r="F24">
-        <v>0.62142857200000001</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0.86309902031214703</v>
-      </c>
-      <c r="F25">
-        <v>0.49333333399999901</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0.82266511750591698</v>
-      </c>
-      <c r="F26">
-        <v>0.133333334</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2.3006419375456801E-2</v>
-      </c>
-      <c r="F27">
-        <v>0.55733333399999996</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>2.5107689063815299E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.42307692400000002</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0.111982953814103</v>
-      </c>
-      <c r="F29">
-        <v>0.59285714199999995</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0.41862938100443903</v>
-      </c>
-      <c r="F30">
-        <v>0.56666666600000004</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0.31810177111592602</v>
-      </c>
-      <c r="F31">
-        <v>0.29428571399999998</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0.46484931973677202</v>
-      </c>
-      <c r="F32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0.89833024501779102</v>
-      </c>
-      <c r="F33">
-        <v>0.18266666599999901</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0.46776429669871</v>
-      </c>
-      <c r="F34">
-        <v>2.9333333999999898E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2.2576586397458E-2</v>
-      </c>
-      <c r="F35">
-        <v>0.39714285799999999</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>5.86053468597834E-2</v>
-      </c>
-      <c r="F36">
-        <v>0.62428571399999999</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0.48774373749452199</v>
-      </c>
-      <c r="F38">
-        <v>0.22</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0.34766385922675103</v>
-      </c>
-      <c r="F39">
-        <v>0.16666666599999999</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0.35506203331252001</v>
-      </c>
-      <c r="F40">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.76277317356046204</v>
-      </c>
-      <c r="F41">
-        <v>4.6153839999999403E-3</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>3.6514760595112099E-2</v>
-      </c>
-      <c r="F42">
-        <v>0.08</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0.39726220541151702</v>
-      </c>
-      <c r="F43">
-        <v>0.20533333400000001</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>5.43561870555134E-2</v>
-      </c>
-      <c r="F44">
-        <v>0.342857142</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0.21822793590603801</v>
-      </c>
-      <c r="F45">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0.68443731267523</v>
-      </c>
-      <c r="F46">
-        <v>0.22769230800000001</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0.91717836348065596</v>
-      </c>
-      <c r="F47">
-        <v>0.57428571399999995</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0.53072263566748101</v>
-      </c>
-      <c r="F48">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0.115125870992146</v>
-      </c>
-      <c r="F49">
-        <v>0.42266666600000002</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>6.2820237109819904E-2</v>
-      </c>
-      <c r="F50">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.319198215032165</v>
-      </c>
-      <c r="F51">
-        <v>0.06</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0.96667700139232704</v>
-      </c>
-      <c r="F52">
-        <v>4.8571428E-2</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0.60218222927562304</v>
-      </c>
-      <c r="F53">
-        <v>0.27</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0.13285714200000001</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0.47287083742559499</v>
-      </c>
-      <c r="F55">
-        <v>0.21714285799999999</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB990BE-A341-488A-8F87-BC5CBA5A6403}">
-  <dimension ref="A1:G55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.462857142</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.305714285999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.54666666600000002</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.40571428599999898</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.182857142</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.29857142799999897</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.55466666599999903</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.342857142</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.47538461599999998</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.54933333399999995</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.61833333399999901</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.34153846199999999</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.37066666599999898</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.107999999999999</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.62714285800000003</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.55333333399999896</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.37230769199999902</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.104</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.31733333399999902</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.62142857200000001</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.49333333399999901</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.133333334</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.55733333399999996</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.42307692400000002</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.59285714199999995</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.56666666600000004</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.29428571399999998</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.18266666599999901</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2.9333333999999898E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.39714285799999999</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.62428571399999999</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0.22</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0.16666666599999999</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>4.6153839999999403E-3</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0.08</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0.20533333400000001</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0.342857142</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0.22769230800000001</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0.57428571399999995</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0.42266666600000002</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0.06</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>4.8571428E-2</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0.27</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>0.13285714200000001</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0.21714285799999999</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51ED826-8BCF-404A-89CD-5A7F46829034}">
   <dimension ref="A1:G55"/>
   <sheetViews>
